--- a/data/trans_camb/P1434-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1434-Clase-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>0.8179851507790347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.188632872972873</v>
+        <v>3.188632872972874</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.52593801176368</v>
+        <v>-1.534836971868175</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.538435011363066</v>
+        <v>-1.620696543559085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8709787363056135</v>
+        <v>0.579388439226337</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.488077285055642</v>
+        <v>3.320069103029304</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.24414093022665</v>
+        <v>3.012815367302674</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.547619404884452</v>
+        <v>5.419536378802655</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4630559581333933</v>
+        <v>-0.4539087601830483</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4542129516028696</v>
+        <v>-0.4729321578868536</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1597215634571823</v>
+        <v>0.08116819197775621</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.401295966239058</v>
+        <v>2.326385490429729</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.264858093969884</v>
+        <v>1.961394309188293</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.579318833275293</v>
+        <v>3.48712770627313</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4947095830878306</v>
+        <v>-0.540803423014802</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.262709399087297</v>
+        <v>-1.155062687362265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.075373100854466</v>
+        <v>1.32221867631242</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.752970576396503</v>
+        <v>4.690359393868903</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.05085788649945</v>
+        <v>4.016503389890488</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.196857686608478</v>
+        <v>6.119659320834811</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2077733817611112</v>
+        <v>-0.2141275378093493</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4023285535766337</v>
+        <v>-0.4301632954137876</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2532999373741234</v>
+        <v>0.1824942751391752</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.299671210590267</v>
+        <v>3.080151266131387</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.722462860801804</v>
+        <v>2.704296795862759</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.482236746398372</v>
+        <v>4.331136214126289</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3342826807440705</v>
+        <v>-0.2598016903522671</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3575583484173463</v>
+        <v>-0.3520294293876445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.9044228986348</v>
+        <v>1.918275211935197</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.053040426373453</v>
+        <v>3.843900162964276</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.930560844811228</v>
+        <v>3.743484886496756</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.504264559326253</v>
+        <v>6.652367253250429</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1616720662686933</v>
+        <v>-0.1482536148241656</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1612842417494101</v>
+        <v>-0.1261127788534795</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.531374826242429</v>
+        <v>0.4482341073760215</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.520574491371372</v>
+        <v>2.500317545280642</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.60727438651129</v>
+        <v>2.696126269235334</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.681588189995511</v>
+        <v>4.579335095010963</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.358097102617868</v>
+        <v>-2.408185127549883</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.30723280112114</v>
+        <v>-3.27405176140027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1591950394872344</v>
+        <v>-0.01761829636489106</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6413442670687177</v>
+        <v>0.707959941082933</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5788883347401472</v>
+        <v>-0.4252814110307117</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.218165607847668</v>
+        <v>3.263735200989078</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4708099122456951</v>
+        <v>-0.4610288322463236</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6379876777027289</v>
+        <v>-0.6417949217944606</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02619296412610719</v>
+        <v>-0.005339965608955208</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1894883439478235</v>
+        <v>0.1902101769556934</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1487667215925799</v>
+        <v>-0.1112849071542326</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9031859564607245</v>
+        <v>0.8976464162689449</v>
       </c>
     </row>
     <row r="28">
@@ -1014,7 +1014,7 @@
         <v>0.1360283933274843</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2165532414637829</v>
+        <v>0.2165532414637843</v>
       </c>
     </row>
     <row r="29">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.258501027896202</v>
+        <v>-3.220873304362992</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.957344863962036</v>
+        <v>-3.042302679298002</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.475973671018756</v>
+        <v>-2.76053334736185</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.686205326028497</v>
+        <v>2.468470696220768</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.594648277513468</v>
+        <v>2.662653703813529</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.812183915140442</v>
+        <v>2.647896313504095</v>
       </c>
     </row>
     <row r="31">
@@ -1065,7 +1065,7 @@
         <v>0.02800475945682832</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.04458276164586863</v>
+        <v>0.04458276164586892</v>
       </c>
     </row>
     <row r="32">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4901666418883347</v>
+        <v>-0.4919442987217735</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4229581691185058</v>
+        <v>-0.4313451559109058</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3765290420136264</v>
+        <v>-0.3945219235606392</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8978537217985589</v>
+        <v>0.8155794645936023</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8040158235909818</v>
+        <v>0.8079181436030957</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9479280755886685</v>
+        <v>0.7966117662408588</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.534849434328065</v>
+        <v>-1.536217508648303</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.653248541612767</v>
+        <v>-1.55103304618778</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6836234214392258</v>
+        <v>-0.792354387534181</v>
       </c>
     </row>
     <row r="36">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.189035037172663</v>
+        <v>1.200904417768133</v>
       </c>
     </row>
     <row r="37">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.5536070949023427</v>
+        <v>-0.5092509881279488</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.877197037072186</v>
+        <v>-0.8835101051653426</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.286382037335785</v>
+        <v>1.280201977454348</v>
       </c>
     </row>
     <row r="42">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.292191170627719</v>
+        <v>1.277562781867323</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.8506784601418729</v>
+        <v>0.8442712062309318</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.089540962479336</v>
+        <v>3.202270278109075</v>
       </c>
     </row>
     <row r="43">
@@ -1276,13 +1276,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1531444658181113</v>
+        <v>-0.1438809591455885</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2413860493939076</v>
+        <v>-0.2377311521260632</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3341334810571618</v>
+        <v>0.3275649601172864</v>
       </c>
     </row>
     <row r="45">
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4466743188422828</v>
+        <v>0.4606152232201813</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2992110891809073</v>
+        <v>0.293004649308098</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.081967753584427</v>
+        <v>1.119290070382541</v>
       </c>
     </row>
     <row r="46">
